--- a/raw/Metafeatures.xlsx
+++ b/raw/Metafeatures.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="0"/>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
   <si>
     <t>id</t>
   </si>
@@ -20,13 +20,10 @@
     <t>feature_area</t>
   </si>
   <si>
-    <t>no clusivity distinction in independent personal pronouns</t>
-  </si>
-  <si>
-    <t>complementizer may be preposed to the clause</t>
-  </si>
-  <si>
-    <t>complementizer may be postposed to the clause</t>
+    <t>independent personal pronouns make no clusivity distinction</t>
+  </si>
+  <si>
+    <t>complements may have a preposed complementizer</t>
   </si>
   <si>
     <t>sex is a relevant property in the nomifier system</t>
@@ -65,10 +62,10 @@
     <t>a clause with a predicate nominal has no copula</t>
   </si>
   <si>
-    <t>clusivity distinction in independent personal pronouns</t>
-  </si>
-  <si>
-    <t>locational predicates have a non-standard negation</t>
+    <t>independent personal pronouns make a clusivity distinction</t>
+  </si>
+  <si>
+    <t>locational predications have a non-standard negation marker</t>
   </si>
   <si>
     <t>no numeral classifiers</t>
@@ -77,28 +74,35 @@
     <t>no gender system</t>
   </si>
   <si>
-    <t>genifiers</t>
+    <t>nomifiers</t>
   </si>
   <si>
     <t>optional numeral classifiers</t>
   </si>
   <si>
+    <t>nomifier</t>
+  </si>
+  <si>
     <t>obligatory numeral classifiers</t>
   </si>
   <si>
-    <t>affixal possessive indexes are suffixes</t>
+    <t xml:space="preserve">nomifier
+</t>
+  </si>
+  <si>
+    <t>affixal adpossessive indexes are suffixes</t>
   </si>
   <si>
     <t>nominal markers</t>
   </si>
   <si>
-    <t>affixal possessive indexes are prefixes</t>
-  </si>
-  <si>
-    <t>affixal possessive indexes are prefixes or suffixes</t>
-  </si>
-  <si>
-    <t>no affixal possessive indexes</t>
+    <t>affixal adpossessive indexes are prefixes</t>
+  </si>
+  <si>
+    <t>affixal adpossessive indexes are prefixes or suffixes with neither dominant</t>
+  </si>
+  <si>
+    <t>no affixal adpossessive indexes</t>
   </si>
   <si>
     <t>possidend nouns exist</t>
@@ -128,10 +132,10 @@
     <t>an indefinite article exists</t>
   </si>
   <si>
-    <t>an article exists that precedes the noun in a neutral order</t>
-  </si>
-  <si>
-    <t>an article exists that follows the noun in a neutral order</t>
+    <t>an article exists that precedes the noun in a normal order</t>
+  </si>
+  <si>
+    <t>there is an article that follows the noun in a normal order</t>
   </si>
   <si>
     <t>property words used as adnominal modifiers can occur discontinuously</t>
@@ -179,13 +183,7 @@
     <t>nouns obligatorily carry a flag</t>
   </si>
   <si>
-    <t>a standard negative construction contains a clause-final negator</t>
-  </si>
-  <si>
-    <t>a standard negative construction contains a clause-initial negator</t>
-  </si>
-  <si>
-    <t>no gender distinction in independent personal pronouns</t>
+    <t>gender distinction in independent personal pronouns lacking</t>
   </si>
   <si>
     <t>independent personal pronouns coexpress 1st and 2nd person</t>
@@ -221,19 +219,19 @@
     <t>2nd-person forms are titles</t>
   </si>
   <si>
-    <t>Of interrogative pronouns who/when/where/how, all four are simple</t>
-  </si>
-  <si>
-    <t>Of who/when/where/how, one interrogative is a compound expression</t>
-  </si>
-  <si>
-    <t>Of who/when/where/how, two interrogatives are compound expressions</t>
-  </si>
-  <si>
-    <t>Of who/when/where/how, three interrogatives are compound expressions</t>
-  </si>
-  <si>
-    <t>Of the interrogatives who/when/where/how, all four are compound expressions</t>
+    <t>of interrogative pronouns who/when/where/how, all four are simple</t>
+  </si>
+  <si>
+    <t>of who/when/where/how, one interrogative is a compound expression</t>
+  </si>
+  <si>
+    <t>of who/when/where/how, two interrogatives are compound expressions</t>
+  </si>
+  <si>
+    <t>of who/when/where/how, three interrogatives are compound expressions</t>
+  </si>
+  <si>
+    <t>of the interrogatives who/when/where/how, all four are compound expressions</t>
   </si>
   <si>
     <t>Pronoun conjunction: Singular pronoun overtly conjoined with other conjunct</t>
@@ -242,7 +240,7 @@
     <t>Pronoun conjunction: Inclusory pronoun juxtaposed with subset NP</t>
   </si>
   <si>
-    <t>Pronoun conjunction: Inclusory pronoun plus marker plus subset NP</t>
+    <t>pronoun conjunction: inclusory pronoun plus marker plus subset NP</t>
   </si>
   <si>
     <t>Pronoun conjunction: Inclusory pronoun plus numeral plus subset NP</t>
@@ -354,6 +352,798 @@
   </si>
   <si>
     <t>nouns with plural meaning have a plural marker only if they are animate</t>
+  </si>
+  <si>
+    <t>there is a class of labile verb pairs</t>
+  </si>
+  <si>
+    <t>there is no class of labile verb pairs</t>
+  </si>
+  <si>
+    <t>the verb 'see' has strong root suppletion</t>
+  </si>
+  <si>
+    <t>the verb 'see' does not have strong root suppletion</t>
+  </si>
+  <si>
+    <t>the agent can be expressed overtly in a passive clause</t>
+  </si>
+  <si>
+    <t>the verb 'come' does not have strong root suppletion</t>
+  </si>
+  <si>
+    <t>the verb 'come' has strong root suppletion</t>
+  </si>
+  <si>
+    <t>alignment of flagging is accusative at least in part</t>
+  </si>
+  <si>
+    <t>alignment of flagging is not accusative at all</t>
+  </si>
+  <si>
+    <t>alignment of flagging is ergative at least in part</t>
+  </si>
+  <si>
+    <t>alignment of flagging is not ergative at all</t>
+  </si>
+  <si>
+    <t>alignment of flagging is neutral at least in part</t>
+  </si>
+  <si>
+    <t>alignment of flagging is not neutral at all</t>
+  </si>
+  <si>
+    <t>2nd-person independent pronouns have a politeness distinction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complements of propositional verbs may have a preposed complementizer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">complements of propositional verbs may not have a preposed complementizer </t>
+  </si>
+  <si>
+    <t>an indefinite article does not exist</t>
+  </si>
+  <si>
+    <t>a normal order of intransitive S and V is S-V</t>
+  </si>
+  <si>
+    <t>a normal order of intransitive S and V is V-S</t>
+  </si>
+  <si>
+    <t>both S-V and V-S are normal orders of intransitive S and V</t>
+  </si>
+  <si>
+    <t>there is a normal order with V preceding A and P in transitive clauses</t>
+  </si>
+  <si>
+    <t>there is no normal order with V preceding A and P in transitive clauses</t>
+  </si>
+  <si>
+    <t>there is a normal order with V following A and P in transitive clauses</t>
+  </si>
+  <si>
+    <t>there is no normal order with V following A and P in transitive clauses</t>
+  </si>
+  <si>
+    <t>there is a logophoric pronoun</t>
+  </si>
+  <si>
+    <t>there is no logophoric pronoun</t>
+  </si>
+  <si>
+    <t>adnominal adjectives may have gender markers reflecting the noun's gender class</t>
+  </si>
+  <si>
+    <t>adnominal adjectives have no gender markers reflecting the noun's gender class</t>
+  </si>
+  <si>
+    <t>adnominal demonstratives may have gender markers reflecting the noun's gender class</t>
+  </si>
+  <si>
+    <t>adnominal demonstratives have no gender markers reflecting the noun's gender class</t>
+  </si>
+  <si>
+    <t>articles have gender markers reflecting the noun's gender class</t>
+  </si>
+  <si>
+    <t>articles have no gender markers reflecting the noun's gender class</t>
+  </si>
+  <si>
+    <t>adnominal adjectives make a number distinction</t>
+  </si>
+  <si>
+    <t>adnominal adjectives make no number distinction</t>
+  </si>
+  <si>
+    <t>adnominal demonstratives make a number distinction</t>
+  </si>
+  <si>
+    <t>adnominal demonstratives make no number distinction</t>
+  </si>
+  <si>
+    <t>there is a diminutive marking pattern for nouns</t>
+  </si>
+  <si>
+    <t>there is no diminutive marking pattern for nouns</t>
+  </si>
+  <si>
+    <t>there is an augmentative marking pattern for nouns</t>
+  </si>
+  <si>
+    <t>there is no augmentative marking pattern for nouns</t>
+  </si>
+  <si>
+    <t>gender class assignment is never phonologically based</t>
+  </si>
+  <si>
+    <t>gender class assignment is sometimes phonologically based</t>
+  </si>
+  <si>
+    <t>order of adjective and noun is always A-N</t>
+  </si>
+  <si>
+    <t>order of adjective and noun is always N-A</t>
+  </si>
+  <si>
+    <t>order of adjective and noun is N-A or A-N</t>
+  </si>
+  <si>
+    <t>independent personal pronouns make a male/female distinction in the 2nd person</t>
+  </si>
+  <si>
+    <t>independent personal pronouns make no male/female distinction in the 1st person</t>
+  </si>
+  <si>
+    <t>independent personal pronouns make a male/female distinction in the 1st person</t>
+  </si>
+  <si>
+    <t>independent personal pronouns make no male/female distinction in the 2nd person</t>
+  </si>
+  <si>
+    <t>order of noun and 'all' is always N-all</t>
+  </si>
+  <si>
+    <t>order of noun and 'all' is always all-N</t>
+  </si>
+  <si>
+    <t>order of noun and 'all' is all-N or N-all</t>
+  </si>
+  <si>
+    <t>'all' and 'every' differ in shape or order</t>
+  </si>
+  <si>
+    <t>'all' and 'every' are identical in shape and order</t>
+  </si>
+  <si>
+    <t>there is a predpossessive construction with a transitive verb ('have')</t>
+  </si>
+  <si>
+    <t>there is no predpossessive construction with a transitive verb ('have')</t>
+  </si>
+  <si>
+    <t>there is a predpossessive construction with a locative-flagged possessor and S-coded possessum</t>
+  </si>
+  <si>
+    <t>there is no predpossessive construction with a locative-flagged possessor and S-coded possessum</t>
+  </si>
+  <si>
+    <t>a polar question may lack a marker and be indicated only by special intonation</t>
+  </si>
+  <si>
+    <t>a polar question may not lack a marker and be indicated only by special intonantion</t>
+  </si>
+  <si>
+    <t>a polar question may be indicated by a special word order</t>
+  </si>
+  <si>
+    <t>a polar question may not be indicated by a special word order</t>
+  </si>
+  <si>
+    <t>a polar question may be indicated by a clause-initial particle</t>
+  </si>
+  <si>
+    <t>a polar question may not be indicated by a clause-initial particle</t>
+  </si>
+  <si>
+    <t>a polar question may be indicated by a clause-final particle</t>
+  </si>
+  <si>
+    <t>a polar question may not be indicated by a clause-final particle</t>
+  </si>
+  <si>
+    <t>a polar question may be indicated by a neither clause-initial nor clause-final particle</t>
+  </si>
+  <si>
+    <t>a polar question may not be indicated by a neither clause-initial nor clause-final particle</t>
+  </si>
+  <si>
+    <t>there is a normal comparative construction which includes a form that elsewhere means 'exceed, surpass'</t>
+  </si>
+  <si>
+    <t>there is no normal comparative construction which includes a form that elsewhere means 'exceed, surpass'</t>
+  </si>
+  <si>
+    <t>there is a comparative construction with a standard-marker that elsewhere has a spatial meaning</t>
+  </si>
+  <si>
+    <t>there is no comparative construction with a standard-marker that elsewhere has a spatial meaning</t>
+  </si>
+  <si>
+    <t>there is a comparative construction with a standard-marker that elsewhere has neither a spatial nor an 'exceed/surpass' meaning</t>
+  </si>
+  <si>
+    <t>there is no comparative construction with a standard-marker that elsewhere has neither a spatial nor an 'exceed/surpass' meaning</t>
+  </si>
+  <si>
+    <t>there is a comparative degree marker on the property word in the comparative construction</t>
+  </si>
+  <si>
+    <t>there is no comparative degree marker on the property word in the comparative construction</t>
+  </si>
+  <si>
+    <t>a polar question may be indicated by an affix on the verb</t>
+  </si>
+  <si>
+    <t>a polar question may not be indicated by an affix on the verb</t>
+  </si>
+  <si>
+    <t>there is an inclusory construction</t>
+  </si>
+  <si>
+    <t>there is no inclusory construction</t>
+  </si>
+  <si>
+    <t>the agent cannot be expressed overtly in a passive clause</t>
+  </si>
+  <si>
+    <t>there is a reflexive nominal</t>
+  </si>
+  <si>
+    <t>there is no reflexive nominal</t>
+  </si>
+  <si>
+    <t>there is no non-bipartite reciprocal nominal</t>
+  </si>
+  <si>
+    <t>there is a non-bipartite reciprocal nominal</t>
+  </si>
+  <si>
+    <t>gender distinction in independent personal pronouns in locuphoric person and 3rd person</t>
+  </si>
+  <si>
+    <t>gender distinction in independent personal pronouns in 3rd person only, also in nonsingular</t>
+  </si>
+  <si>
+    <t>gender distinction in independent personal pronouns in 3rd person singular only</t>
+  </si>
+  <si>
+    <t>gender distinction in independent personal pronouns in locuphoric person only</t>
+  </si>
+  <si>
+    <t>gender distinction in independent personal pronouns in 3rd person non-singular only</t>
+  </si>
+  <si>
+    <t>independent personal pronouns have no dual form</t>
+  </si>
+  <si>
+    <t>independent personal pronouns have a dual form in 1st, 2nd and 3rd person</t>
+  </si>
+  <si>
+    <t>independent personal pronouns have a dual form in 1st person only</t>
+  </si>
+  <si>
+    <t>3rd-person-plural pronoun coexpresses noun plural</t>
+  </si>
+  <si>
+    <t>3rd-person-plural pronoun does not coexpress noun plural</t>
+  </si>
+  <si>
+    <t>3rd-person-plural pronoun partially coexpresses noun plural</t>
+  </si>
+  <si>
+    <t>there is no reduplication</t>
+  </si>
+  <si>
+    <t>reduplication constructions only have iconic functions</t>
+  </si>
+  <si>
+    <t>reduplication constructions have an attenuating function</t>
+  </si>
+  <si>
+    <t>reduplication constructions have a word-class-changing function</t>
+  </si>
+  <si>
+    <t>reduplication constructions have an attenuating and a word-class-changing function</t>
+  </si>
+  <si>
+    <t>there is a definite article distinct from demonstratives</t>
+  </si>
+  <si>
+    <t>there is a definite article coexpressed with a demonstrative</t>
+  </si>
+  <si>
+    <t>there is an indefinite article but no definite article</t>
+  </si>
+  <si>
+    <t>there is neither an indefinite article nor a definite article</t>
+  </si>
+  <si>
+    <t>there is a definite article but no indefinite article</t>
+  </si>
+  <si>
+    <t>there is an indefinite article coexpressed with numeral 'one'</t>
+  </si>
+  <si>
+    <t>there is an indefinite article distinct from numeral 'one'</t>
+  </si>
+  <si>
+    <t>there are special shape or orientation copulas for locational predicates</t>
+  </si>
+  <si>
+    <t>there are no special shape or orientation copulas for locational predicates</t>
+  </si>
+  <si>
+    <t>UNCLEAR</t>
+  </si>
+  <si>
+    <t>there are multiple past tense or future tense constructions</t>
+  </si>
+  <si>
+    <t>there are no multiple past tense or future tense constructions</t>
+  </si>
+  <si>
+    <t>there is an augmentative-marking construction that entails a special gender class</t>
+  </si>
+  <si>
+    <t>there is no augmentative-marking construction that entails a special gender class</t>
+  </si>
+  <si>
+    <t>there is a gender class with phonologically/semantically unpredictable members</t>
+  </si>
+  <si>
+    <t>there is no gender class with phonologically/semantically unpredictable members</t>
+  </si>
+  <si>
+    <t>there is a direct sensory evidential construction</t>
+  </si>
+  <si>
+    <t>there is no direct sensory evidential construction</t>
+  </si>
+  <si>
+    <t>there is an indirect evidential construction</t>
+  </si>
+  <si>
+    <t>there is no indirect evidential construction</t>
+  </si>
+  <si>
+    <t>interrogative quantifiers make a count/mass distinction</t>
+  </si>
+  <si>
+    <t>interrogative quantifiers make no count/mass distinction</t>
+  </si>
+  <si>
+    <t>interrogative nominals commonly occur in situ</t>
+  </si>
+  <si>
+    <t>interrogative nominals do not commonly occur in situ</t>
+  </si>
+  <si>
+    <t>a relative clause may follow its head noun</t>
+  </si>
+  <si>
+    <t>a relative clause may not follow its head noun</t>
+  </si>
+  <si>
+    <t>a relative clause may precede its head noun</t>
+  </si>
+  <si>
+    <t>a relative clause may not precede its head noun</t>
+  </si>
+  <si>
+    <t>there is an internally-headed relative clause construction</t>
+  </si>
+  <si>
+    <t>there is no internally-headed relative clause construction</t>
+  </si>
+  <si>
+    <t>there is no correlative relative clause construction</t>
+  </si>
+  <si>
+    <t>there is a correlative relative clause construction</t>
+  </si>
+  <si>
+    <t>a relative clause may be non-adjacent to its head noun</t>
+  </si>
+  <si>
+    <t>a relative clause may not be non-adjacent to its head noun</t>
+  </si>
+  <si>
+    <t>there is a decimal numeral system</t>
+  </si>
+  <si>
+    <t>there is no decimal numeral system</t>
+  </si>
+  <si>
+    <t>there is an augend '5' in some of the numerals 6-9</t>
+  </si>
+  <si>
+    <t>there is no augend '5' in any of the numerals 6-9</t>
+  </si>
+  <si>
+    <t>there is a vigesimal numeral system</t>
+  </si>
+  <si>
+    <t>there is no vigesimal numeral system</t>
+  </si>
+  <si>
+    <t>there is a body-part tallying numeral system</t>
+  </si>
+  <si>
+    <t>there is no body-part tallying numeral system</t>
+  </si>
+  <si>
+    <t>person marking is present under some but not all tense/aspect/voice/negation conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complements of propositional verbs may have a postposed complementizer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">complements of propositional verbs may not have a postposed complementizer </t>
+  </si>
+  <si>
+    <t>there is a genitive prefix</t>
+  </si>
+  <si>
+    <t>there is no genitive prefix</t>
+  </si>
+  <si>
+    <t>there is no genitive suffix</t>
+  </si>
+  <si>
+    <t>there is a genitive suffix</t>
+  </si>
+  <si>
+    <t>independent personal pronouns in subject function are optional</t>
+  </si>
+  <si>
+    <t>independent personal pronouns in subject function are obligatory</t>
+  </si>
+  <si>
+    <t>there is no article that follows the noun in a normal order</t>
+  </si>
+  <si>
+    <t>property words used as adnominal modifiers cannot occur discontinuously</t>
+  </si>
+  <si>
+    <t>nominal conjunctive coordinator and comitative flag are distinct</t>
+  </si>
+  <si>
+    <t>nominal conjunctive coordinator and comitative flag are identical</t>
+  </si>
+  <si>
+    <t>person forms make no clusivity distinction</t>
+  </si>
+  <si>
+    <t>person forms make a clusivity distinction</t>
+  </si>
+  <si>
+    <t>the normal order of cardinal and noun is Num-N</t>
+  </si>
+  <si>
+    <t>the normal order of cardinal and noun is N-Num</t>
+  </si>
+  <si>
+    <t>there are two normal orders of cardinal and noun (Num-N, N-Num)</t>
+  </si>
+  <si>
+    <t>the normal order of demonstrative and noun is Dem-N</t>
+  </si>
+  <si>
+    <t>the normal order of demonstrative and noun is N-Dem</t>
+  </si>
+  <si>
+    <t>there are two normal orders of demonstrative and noun (N-Dem, Dem-N)</t>
+  </si>
+  <si>
+    <t>independent personal pronouns make no gender distinction</t>
+  </si>
+  <si>
+    <t>independent personal pronouns make a gender distinction</t>
+  </si>
+  <si>
+    <t>person forms have a dual form in 1st, 2nd and 3rd person</t>
+  </si>
+  <si>
+    <t>person forms do not have a dual form throughout 1st, 2nd and 3rd person</t>
+  </si>
+  <si>
+    <t>adnominal demonstratives make at least a three-way distance distinction</t>
+  </si>
+  <si>
+    <t>adnominal demonstratives make at most a two-way distance distinction</t>
+  </si>
+  <si>
+    <t>adnominal demonstratives make an elevation distinction</t>
+  </si>
+  <si>
+    <t>adnominal demonstratives make no elevation distinction</t>
+  </si>
+  <si>
+    <t>adnominal demonstratives make a visibility distinction</t>
+  </si>
+  <si>
+    <t>adnominal demonstratives make no visibility distinction</t>
+  </si>
+  <si>
+    <t>plural or dual markers on nouns show supplemorphy</t>
+  </si>
+  <si>
+    <t>plural or dual markers on nouns do not show supplemorphy</t>
+  </si>
+  <si>
+    <t>there are more than three nouns which have a suppletive plural form</t>
+  </si>
+  <si>
+    <t>there are at most three nouns which have a suppletive plural form</t>
+  </si>
+  <si>
+    <t>there is a productive singular affix on nouns</t>
+  </si>
+  <si>
+    <t>there is no productive singular affix on nouns</t>
+  </si>
+  <si>
+    <t>there is a productive dual affix on nouns</t>
+  </si>
+  <si>
+    <t>there is no productive dual affix on nouns</t>
+  </si>
+  <si>
+    <t>there is a productive plural affix on nouns</t>
+  </si>
+  <si>
+    <t>there is no productive plural affix on nouns</t>
+  </si>
+  <si>
+    <t>there is a productive associative plural affix on nouns</t>
+  </si>
+  <si>
+    <t>there is no productive associative plural affix on nouns</t>
+  </si>
+  <si>
+    <t>there is a productive event nominalization form</t>
+  </si>
+  <si>
+    <t>there is no productive event nominalization form</t>
+  </si>
+  <si>
+    <t>there is no productive agent nominalization form</t>
+  </si>
+  <si>
+    <t>there is a productive agent nominalization form</t>
+  </si>
+  <si>
+    <t>there is a productive result nominalization form</t>
+  </si>
+  <si>
+    <t>there is no productive result nominalization form</t>
+  </si>
+  <si>
+    <t>gender class assignment is never based on sex</t>
+  </si>
+  <si>
+    <t>gender class assignment is sometimes based on sex</t>
+  </si>
+  <si>
+    <t>gender class assignment is never based on shape</t>
+  </si>
+  <si>
+    <t>gender class assignment is sometimes based on shape</t>
+  </si>
+  <si>
+    <t>gender class assignment is never based on animacy</t>
+  </si>
+  <si>
+    <t>gender class assignment is sometimes based on animacy</t>
+  </si>
+  <si>
+    <t>no obligatory numeral classifiers</t>
+  </si>
+  <si>
+    <t>alienable and inalienable nouns have different adpossessive constructions</t>
+  </si>
+  <si>
+    <t>alienable and inalienable nouns have the same adpossessive construction</t>
+  </si>
+  <si>
+    <t>the possessed noun precedes the adpossessor nominal in the normal order</t>
+  </si>
+  <si>
+    <t>the possessed noun follows the adpossessor nominal in the normal order</t>
+  </si>
+  <si>
+    <t>the possessed noun may follow or precede the adpossessor nominal in the normal order</t>
+  </si>
+  <si>
+    <t>a noun in A or P function bears an accusative or ergative affix</t>
+  </si>
+  <si>
+    <t>nouns in P and A function do not bear accusative or ergative affixes</t>
+  </si>
+  <si>
+    <t>P and A independent pronouns are formally distinct</t>
+  </si>
+  <si>
+    <t>P and A independent pronouns are not formally distinct</t>
+  </si>
+  <si>
+    <t>there are oblique case affixes on nouns</t>
+  </si>
+  <si>
+    <t>there are no oblique case affixes on nouns</t>
+  </si>
+  <si>
+    <t>there are prepositions</t>
+  </si>
+  <si>
+    <t>there are no prepositions</t>
+  </si>
+  <si>
+    <t>there are no postpositions</t>
+  </si>
+  <si>
+    <t>there are postpositions</t>
+  </si>
+  <si>
+    <t>there are productive infixes combining with verb roots</t>
+  </si>
+  <si>
+    <t>there are no productive infixes combining with verb roots</t>
+  </si>
+  <si>
+    <t>there is an overtly marked present tense construction</t>
+  </si>
+  <si>
+    <t>there is no overtly marked present tense construction</t>
+  </si>
+  <si>
+    <t>there is no overtly marked past tense construction</t>
+  </si>
+  <si>
+    <t>there is an overtly marked past tense construction</t>
+  </si>
+  <si>
+    <t>there is an overtly marked future tense construction</t>
+  </si>
+  <si>
+    <t>there is no overtly marked future tense construction</t>
+  </si>
+  <si>
+    <t>there is a grammatical marking distinction between imperfective and perfective constructions</t>
+  </si>
+  <si>
+    <t>there is no grammatical marking distinction between imperfective and perfective constructions</t>
+  </si>
+  <si>
+    <t>there is postverbal person indexing of S</t>
+  </si>
+  <si>
+    <t>there is no postverbal person indexing of S</t>
+  </si>
+  <si>
+    <t>there is preverbal person indexing of S</t>
+  </si>
+  <si>
+    <t>there is no preverbal person indexing of S</t>
+  </si>
+  <si>
+    <t>there is no postverbal person indexing of A</t>
+  </si>
+  <si>
+    <t>there is postverbal person indexing of A</t>
+  </si>
+  <si>
+    <t>there is no preverbal person indexing of A</t>
+  </si>
+  <si>
+    <t>there is preverbal person indexing of A</t>
+  </si>
+  <si>
+    <t>there is postverbal person indexing of P</t>
+  </si>
+  <si>
+    <t>there is no postverbal person indexing of P</t>
+  </si>
+  <si>
+    <t>there is no preverbal person indexing of P</t>
+  </si>
+  <si>
+    <t>there is preverbal person indexing of P</t>
+  </si>
+  <si>
+    <t>the normal order of clausal objects is the same as the order of nominal objects</t>
+  </si>
+  <si>
+    <t>the normal order of clausal objects is not the same as the order of nominal objects</t>
+  </si>
+  <si>
+    <t>the normal order of core argument nominals with respect to the verb is rigid</t>
+  </si>
+  <si>
+    <t>the normal order of core argument nominals with respect to the verb is flexible</t>
+  </si>
+  <si>
+    <t>declarative and imperative sentences have the same negation construction</t>
+  </si>
+  <si>
+    <t>declarative and imperative sentences have different negation constructions</t>
+  </si>
+  <si>
+    <t>verbal and nonverbal clauses have distinct negators</t>
+  </si>
+  <si>
+    <t>verbal and nonverbal clauses have the same negator</t>
+  </si>
+  <si>
+    <t>there is an antipassive construction</t>
+  </si>
+  <si>
+    <t>there is no passive construction</t>
+  </si>
+  <si>
+    <t>there is no antipassive construction</t>
+  </si>
+  <si>
+    <t>there is a passive construction</t>
+  </si>
+  <si>
+    <t>there is no causative construction</t>
+  </si>
+  <si>
+    <t>there is a causative construction</t>
+  </si>
+  <si>
+    <t>the verb 'give' has strong root suppletion</t>
+  </si>
+  <si>
+    <t>the verb 'give' does not have strong root suppletion</t>
+  </si>
+  <si>
+    <t>there is a productive trial affix on nouns</t>
+  </si>
+  <si>
+    <t>there is a productive paucal affix on nouns</t>
+  </si>
+  <si>
+    <t>there is no predpossessive construction with a dative-flagged possessor and S-coded possessum</t>
+  </si>
+  <si>
+    <t>there is a predpossessive construction with a dative-flagged possessor and S-coded possessum</t>
+  </si>
+  <si>
+    <t>there is no predpossessive construction with an adpossessor-like predpossessor and S-coded possessum</t>
+  </si>
+  <si>
+    <t>there is a predpossessive construction with an adpossessor-like predpossessor and S-coded possessum</t>
+  </si>
+  <si>
+    <t>there is a predpossessive construction with an S-coded predpossessor and comitative-flagged possessum</t>
+  </si>
+  <si>
+    <t>there is no predpossessive construction with an S-coded predpossessor and comitative-flagged possessum</t>
+  </si>
+  <si>
+    <t>there is cumulative expression of TAM and subject person</t>
+  </si>
+  <si>
+    <t>dominant order in intransitive clauses is S-V</t>
+  </si>
+  <si>
+    <t>dominant order in intransitive clauses is V-S</t>
+  </si>
+  <si>
+    <t>there is no dominant order in intransitive clauses</t>
   </si>
 </sst>
 </file>
@@ -369,17 +1159,17 @@
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -433,15 +1223,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetFormatPr baseColWidth="21" defaultRowHeight="15"/>
   <sheetData>
-    <row r="0"/>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
     </row>
@@ -449,7 +1238,7 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" t="s" s="7">
         <v>3</v>
       </c>
     </row>
@@ -457,7 +1246,7 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" t="s" s="7">
         <v>4</v>
       </c>
     </row>
@@ -465,891 +1254,2993 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>5</v>
+      <c r="B4" t="s" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
+      <c r="B5" t="s" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
+      <c r="B6" t="s" s="7">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
+      <c r="B7" t="s" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>9</v>
+      <c r="B8" t="s" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
+      <c r="B9" t="s" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
+      <c r="B10" t="s" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
+      <c r="B11" t="s" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6">
         <v>12</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>13</v>
+      <c r="B12" t="s" s="7">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6">
         <v>13</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>14</v>
+      <c r="B13" t="s" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6">
         <v>14</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>15</v>
+      <c r="B14" t="s" s="7">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6">
         <v>15</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>16</v>
+      <c r="B15" t="s" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6">
         <v>16</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>17</v>
+      <c r="B16" t="s" s="7">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6">
         <v>17</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>18</v>
+      <c r="B17" t="s" s="7">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6">
         <v>19</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>19</v>
+      <c r="B18" t="s" s="7">
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6">
         <v>20</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>20</v>
+      <c r="B19" t="s" s="7">
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6">
         <v>21</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s" s="8">
         <v>21</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6">
         <v>22</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s" s="8">
         <v>23</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6">
         <v>23</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s" s="7">
         <v>24</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>22</v>
+      <c r="C22" t="s" s="8">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6">
         <v>24</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" t="s" s="7">
         <v>26</v>
+      </c>
+      <c r="C23" t="s" s="8">
+        <v>27</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6">
         <v>25</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s" s="8">
         <v>27</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6">
         <v>26</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>26</v>
+      <c r="B25" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s" s="8">
+        <v>27</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6">
         <v>27</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>26</v>
+      <c r="B26" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s" s="8">
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6">
         <v>28</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>26</v>
+      <c r="B27" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s" s="8">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6">
         <v>29</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>31</v>
+      <c r="B28" t="s" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6">
         <v>30</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>32</v>
+      <c r="B29" t="s" s="7">
+        <v>33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6">
         <v>31</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>33</v>
+      <c r="B30" t="s" s="7">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6">
         <v>32</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>34</v>
+      <c r="B31" t="s" s="7">
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6">
         <v>33</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>35</v>
+      <c r="B32" t="s" s="7">
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6">
         <v>34</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>36</v>
+      <c r="B33" t="s" s="7">
+        <v>37</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6">
         <v>35</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>37</v>
+      <c r="B34" t="s" s="7">
+        <v>38</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6">
         <v>36</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>38</v>
+      <c r="B35" t="s" s="7">
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6">
         <v>37</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>39</v>
+      <c r="B36" t="s" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6">
         <v>38</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>40</v>
+      <c r="B37" t="s" s="7">
+        <v>41</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6">
         <v>39</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="B38" t="s" s="7">
         <v>42</v>
+      </c>
+      <c r="C38" t="s" s="8">
+        <v>43</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="6">
         <v>40</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>43</v>
+      <c r="B39" t="s" s="7">
+        <v>44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="6">
         <v>41</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>44</v>
+      <c r="B40" t="s" s="7">
+        <v>45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="6">
         <v>42</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>45</v>
+      <c r="B41" t="s" s="7">
+        <v>46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="6">
         <v>43</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>46</v>
+      <c r="B42" t="s" s="7">
+        <v>47</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="6">
         <v>44</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>47</v>
+      <c r="B43" t="s" s="7">
+        <v>48</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="6">
         <v>45</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>48</v>
+      <c r="B44" t="s" s="7">
+        <v>49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="6">
         <v>46</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>49</v>
+      <c r="B45" t="s" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="6">
         <v>47</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>50</v>
+      <c r="B46" t="s" s="7">
+        <v>51</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="6">
         <v>48</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>51</v>
+      <c r="B47" t="s" s="7">
+        <v>52</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="6">
         <v>49</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>52</v>
+      <c r="B48" t="s" s="7">
+        <v>53</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="6">
         <v>50</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>53</v>
+      <c r="B49" t="s" s="7">
+        <v>54</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="6">
         <v>51</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>54</v>
+      <c r="B50" t="s" s="7">
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="6">
         <v>52</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>55</v>
+      <c r="B51" t="s" s="7">
+        <v>56</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="6">
-        <v>54</v>
-      </c>
-      <c r="B52" s="7" t="s">
         <v>56</v>
+      </c>
+      <c r="B52" t="s" s="7">
+        <v>57</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="6">
-        <v>55</v>
-      </c>
-      <c r="B53" s="7" t="s">
         <v>57</v>
+      </c>
+      <c r="B53" t="s" s="7">
+        <v>58</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="6">
-        <v>56</v>
-      </c>
-      <c r="B54" s="7" t="s">
         <v>58</v>
+      </c>
+      <c r="B54" t="s" s="7">
+        <v>59</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="6">
-        <v>57</v>
-      </c>
-      <c r="B55" s="7" t="s">
         <v>59</v>
+      </c>
+      <c r="B55" t="s" s="7">
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="6">
-        <v>58</v>
-      </c>
-      <c r="B56" s="7" t="s">
         <v>60</v>
+      </c>
+      <c r="B56" t="s" s="7">
+        <v>61</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="6">
-        <v>59</v>
-      </c>
-      <c r="B57" s="7" t="s">
         <v>61</v>
+      </c>
+      <c r="B57" t="s" s="7">
+        <v>62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="6">
-        <v>60</v>
-      </c>
-      <c r="B58" s="7" t="s">
         <v>62</v>
+      </c>
+      <c r="B58" t="s" s="7">
+        <v>63</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="6">
-        <v>61</v>
-      </c>
-      <c r="B59" s="7" t="s">
         <v>63</v>
+      </c>
+      <c r="B59" t="s" s="7">
+        <v>64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="6">
-        <v>62</v>
-      </c>
-      <c r="B60" s="7" t="s">
         <v>64</v>
+      </c>
+      <c r="B60" t="s" s="7">
+        <v>65</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="6">
-        <v>63</v>
-      </c>
-      <c r="B61" s="7" t="s">
         <v>65</v>
+      </c>
+      <c r="B61" t="s" s="7">
+        <v>66</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="6">
-        <v>64</v>
-      </c>
-      <c r="B62" s="7" t="s">
         <v>66</v>
+      </c>
+      <c r="B62" t="s" s="7">
+        <v>67</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="6">
-        <v>65</v>
-      </c>
-      <c r="B63" s="7" t="s">
         <v>67</v>
+      </c>
+      <c r="B63" t="s" s="7">
+        <v>68</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="6">
-        <v>66</v>
-      </c>
-      <c r="B64" s="7" t="s">
         <v>68</v>
+      </c>
+      <c r="B64" t="s" s="7">
+        <v>69</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="6">
-        <v>67</v>
-      </c>
-      <c r="B65" s="7" t="s">
         <v>69</v>
+      </c>
+      <c r="B65" t="s" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="6">
-        <v>68</v>
-      </c>
-      <c r="B66" s="7" t="s">
         <v>70</v>
+      </c>
+      <c r="B66" t="s" s="7">
+        <v>71</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="6">
-        <v>69</v>
-      </c>
-      <c r="B67" s="7" t="s">
         <v>71</v>
+      </c>
+      <c r="B67" t="s" s="7">
+        <v>72</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="6">
-        <v>70</v>
-      </c>
-      <c r="B68" s="7" t="s">
         <v>72</v>
+      </c>
+      <c r="B68" t="s" s="7">
+        <v>73</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="6">
-        <v>71</v>
-      </c>
-      <c r="B69" s="7" t="s">
         <v>73</v>
+      </c>
+      <c r="B69" t="s" s="7">
+        <v>74</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="6">
-        <v>72</v>
-      </c>
-      <c r="B70" s="7" t="s">
         <v>74</v>
+      </c>
+      <c r="B70" t="s" s="7">
+        <v>75</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="6">
-        <v>73</v>
-      </c>
-      <c r="B71" s="7" t="s">
         <v>75</v>
+      </c>
+      <c r="B71" t="s" s="7">
+        <v>76</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="6">
-        <v>74</v>
-      </c>
-      <c r="B72" s="7" t="s">
         <v>76</v>
+      </c>
+      <c r="B72" t="s" s="7">
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="6">
-        <v>75</v>
-      </c>
-      <c r="B73" s="7" t="s">
         <v>77</v>
+      </c>
+      <c r="B73" t="s" s="7">
+        <v>78</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="6">
-        <v>76</v>
-      </c>
-      <c r="B74" s="7" t="s">
         <v>78</v>
+      </c>
+      <c r="B74" t="s" s="7">
+        <v>79</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="6">
-        <v>77</v>
-      </c>
-      <c r="B75" s="7" t="s">
         <v>79</v>
+      </c>
+      <c r="B75" t="s" s="7">
+        <v>80</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="6">
-        <v>78</v>
-      </c>
-      <c r="B76" s="7" t="s">
         <v>80</v>
+      </c>
+      <c r="B76" t="s" s="7">
+        <v>81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="6">
-        <v>79</v>
-      </c>
-      <c r="B77" s="7" t="s">
         <v>81</v>
+      </c>
+      <c r="B77" t="s" s="7">
+        <v>82</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="6">
-        <v>80</v>
-      </c>
-      <c r="B78" s="7" t="s">
         <v>82</v>
+      </c>
+      <c r="B78" t="s" s="7">
+        <v>83</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="6">
-        <v>81</v>
-      </c>
-      <c r="B79" s="7" t="s">
         <v>83</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="6">
-        <v>82</v>
-      </c>
-      <c r="B80" s="7" t="s">
         <v>84</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>85</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="6">
-        <v>83</v>
-      </c>
-      <c r="B81" s="7" t="s">
         <v>85</v>
+      </c>
+      <c r="B81" t="s" s="7">
+        <v>86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="6">
-        <v>84</v>
-      </c>
-      <c r="B82" s="7" t="s">
         <v>86</v>
+      </c>
+      <c r="B82" t="s" s="7">
+        <v>87</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="6">
-        <v>85</v>
-      </c>
-      <c r="B83" s="7" t="s">
         <v>87</v>
+      </c>
+      <c r="B83" t="s" s="7">
+        <v>88</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="6">
-        <v>86</v>
-      </c>
-      <c r="B84" s="7" t="s">
         <v>88</v>
+      </c>
+      <c r="B84" t="s" s="7">
+        <v>89</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="6">
-        <v>87</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B85" t="s" s="7">
+        <v>90</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="6">
-        <v>88</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B86" t="s" s="7">
+        <v>91</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="6">
-        <v>90</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="B87" t="s" s="7">
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="6">
-        <v>91</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="B88" t="s" s="7">
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="6">
-        <v>92</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="B89" t="s" s="7">
+        <v>94</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="6">
-        <v>93</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="B90" t="s" s="7">
+        <v>95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="6">
-        <v>94</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="B91" t="s" s="7">
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="6">
-        <v>95</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="B92" t="s" s="7">
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="6">
-        <v>96</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="B93" t="s" s="7">
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="6">
-        <v>97</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="B94" t="s" s="7">
+        <v>99</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="6">
-        <v>98</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="B95" t="s" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6">
-        <v>99</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="B96" t="s" s="7">
+        <v>101</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="6">
-        <v>100</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B97" t="s" s="7">
+        <v>102</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="6">
-        <v>101</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B98" t="s" s="7">
+        <v>103</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="6">
-        <v>102</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="B99" t="s" s="7">
+        <v>104</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="6">
-        <v>103</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
+      </c>
+      <c r="B100" t="s" s="7">
+        <v>105</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6">
-        <v>104</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="B101" t="s" s="7">
+        <v>106</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="6">
-        <v>105</v>
-      </c>
-      <c r="B102" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s" s="7">
         <v>106</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="6">
-        <v>106</v>
-      </c>
-      <c r="B103" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103" t="s" s="7">
         <v>107</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="6">
-        <v>107</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
+      </c>
+      <c r="B104" t="s" s="7">
+        <v>108</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="6">
-        <v>108</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
+      </c>
+      <c r="B105" t="s" s="7">
+        <v>109</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="6">
-        <v>109</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="B106" t="s" s="7">
+        <v>110</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="6">
-        <v>110</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="B107" t="s" s="7">
+        <v>111</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="6">
-        <v>111</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+      <c r="B108" t="s" s="7">
+        <v>112</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="6">
-        <v>112</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
+      </c>
+      <c r="B109" t="s" s="7">
+        <v>113</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="6">
-        <v>113</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="B110" t="s" s="7">
+        <v>114</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="6">
-        <v>114</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="B111" t="s" s="7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="6">
+        <v>117</v>
+      </c>
+      <c r="B112" t="s" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6">
+        <v>118</v>
+      </c>
+      <c r="B113" t="s" s="7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="6">
+        <v>119</v>
+      </c>
+      <c r="B114" t="s" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6">
+        <v>120</v>
+      </c>
+      <c r="B115" t="s" s="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="6">
+        <v>121</v>
+      </c>
+      <c r="B116" t="s" s="7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6">
+        <v>122</v>
+      </c>
+      <c r="B117" t="s" s="7">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="6">
+        <v>123</v>
+      </c>
+      <c r="B118" t="s" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6">
+        <v>124</v>
+      </c>
+      <c r="B119" t="s" s="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="6">
+        <v>125</v>
+      </c>
+      <c r="B120" t="s" s="7">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6">
+        <v>126</v>
+      </c>
+      <c r="B121" t="s" s="7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="6">
+        <v>127</v>
+      </c>
+      <c r="B122" t="s" s="7">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6">
+        <v>128</v>
+      </c>
+      <c r="B123" t="s" s="7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="6">
+        <v>129</v>
+      </c>
+      <c r="B124" t="s" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6">
+        <v>130</v>
+      </c>
+      <c r="B125" t="s" s="7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="6">
+        <v>131</v>
+      </c>
+      <c r="B126" t="s" s="7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6">
+        <v>132</v>
+      </c>
+      <c r="B127" t="s" s="7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="6">
+        <v>133</v>
+      </c>
+      <c r="B128" t="s" s="7">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6">
+        <v>134</v>
+      </c>
+      <c r="B129" t="s" s="7">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="6">
+        <v>135</v>
+      </c>
+      <c r="B130" t="s" s="7">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6">
+        <v>136</v>
+      </c>
+      <c r="B131" t="s" s="7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="6">
+        <v>137</v>
+      </c>
+      <c r="B132" t="s" s="7">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6">
+        <v>138</v>
+      </c>
+      <c r="B133" t="s" s="7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="6">
+        <v>139</v>
+      </c>
+      <c r="B134" t="s" s="7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6">
+        <v>140</v>
+      </c>
+      <c r="B135" t="s" s="7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="6">
+        <v>141</v>
+      </c>
+      <c r="B136" t="s" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6">
+        <v>142</v>
+      </c>
+      <c r="B137" t="s" s="7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="6">
+        <v>143</v>
+      </c>
+      <c r="B138" t="s" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6">
+        <v>144</v>
+      </c>
+      <c r="B139" t="s" s="7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="6">
+        <v>145</v>
+      </c>
+      <c r="B140" t="s" s="7">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6">
+        <v>146</v>
+      </c>
+      <c r="B141" t="s" s="7">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="6">
+        <v>147</v>
+      </c>
+      <c r="B142" t="s" s="7">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6">
+        <v>148</v>
+      </c>
+      <c r="B143" t="s" s="7">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="6">
+        <v>149</v>
+      </c>
+      <c r="B144" t="s" s="7">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6">
+        <v>150</v>
+      </c>
+      <c r="B145" t="s" s="7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="6">
+        <v>151</v>
+      </c>
+      <c r="B146" t="s" s="7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6">
+        <v>152</v>
+      </c>
+      <c r="B147" t="s" s="7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="6">
+        <v>153</v>
+      </c>
+      <c r="B148" t="s" s="7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6">
+        <v>154</v>
+      </c>
+      <c r="B149" t="s" s="7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="6">
+        <v>155</v>
+      </c>
+      <c r="B150" t="s" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6">
+        <v>156</v>
+      </c>
+      <c r="B151" t="s" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="6">
+        <v>157</v>
+      </c>
+      <c r="B152" t="s" s="7">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6">
+        <v>158</v>
+      </c>
+      <c r="B153" t="s" s="7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="6">
+        <v>159</v>
+      </c>
+      <c r="B154" t="s" s="7">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6">
+        <v>160</v>
+      </c>
+      <c r="B155" t="s" s="7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="6">
+        <v>161</v>
+      </c>
+      <c r="B156" t="s" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="6">
+        <v>162</v>
+      </c>
+      <c r="B157" t="s" s="7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="6">
+        <v>163</v>
+      </c>
+      <c r="B158" t="s" s="7">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="6">
+        <v>164</v>
+      </c>
+      <c r="B159" t="s" s="7">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="6">
+        <v>165</v>
+      </c>
+      <c r="B160" t="s" s="7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="6">
+        <v>166</v>
+      </c>
+      <c r="B161" t="s" s="7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="6">
+        <v>167</v>
+      </c>
+      <c r="B162" t="s" s="7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="6">
+        <v>168</v>
+      </c>
+      <c r="B163" t="s" s="7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="6">
+        <v>169</v>
+      </c>
+      <c r="B164" t="s" s="7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="6">
+        <v>170</v>
+      </c>
+      <c r="B165" t="s" s="7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="6">
+        <v>171</v>
+      </c>
+      <c r="B166" t="s" s="7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="6">
+        <v>172</v>
+      </c>
+      <c r="B167" t="s" s="7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="6">
+        <v>173</v>
+      </c>
+      <c r="B168" t="s" s="7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="6">
+        <v>174</v>
+      </c>
+      <c r="B169" t="s" s="7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="6">
+        <v>175</v>
+      </c>
+      <c r="B170" t="s" s="7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="6">
+        <v>176</v>
+      </c>
+      <c r="B171" t="s" s="7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="6">
+        <v>177</v>
+      </c>
+      <c r="B172" t="s" s="7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6">
+        <v>178</v>
+      </c>
+      <c r="B173" t="s" s="7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="6">
+        <v>179</v>
+      </c>
+      <c r="B174" t="s" s="7">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="6">
+        <v>180</v>
+      </c>
+      <c r="B175" t="s" s="7">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="6">
+        <v>181</v>
+      </c>
+      <c r="B176" t="s" s="7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="6">
+        <v>182</v>
+      </c>
+      <c r="B177" t="s" s="7">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="6">
+        <v>183</v>
+      </c>
+      <c r="B178" t="s" s="7">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="6">
+        <v>184</v>
+      </c>
+      <c r="B179" t="s" s="7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="6">
+        <v>185</v>
+      </c>
+      <c r="B180" t="s" s="7">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="6">
+        <v>186</v>
+      </c>
+      <c r="B181" t="s" s="7">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="6">
+        <v>187</v>
+      </c>
+      <c r="B182" t="s" s="7">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="6">
+        <v>188</v>
+      </c>
+      <c r="B183" t="s" s="7">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="6">
+        <v>189</v>
+      </c>
+      <c r="B184" t="s" s="7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="6">
+        <v>190</v>
+      </c>
+      <c r="B185" t="s" s="7">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="6">
+        <v>191</v>
+      </c>
+      <c r="B186" t="s" s="7">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="6">
+        <v>192</v>
+      </c>
+      <c r="B187" t="s" s="7">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="6">
+        <v>193</v>
+      </c>
+      <c r="B188" t="s" s="7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="6">
+        <v>194</v>
+      </c>
+      <c r="B189" t="s" s="7">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="6">
+        <v>195</v>
+      </c>
+      <c r="B190" t="s" s="7">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="6">
+        <v>196</v>
+      </c>
+      <c r="B191" t="s" s="7">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="6">
+        <v>197</v>
+      </c>
+      <c r="B192" t="s" s="7">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="6">
+        <v>198</v>
+      </c>
+      <c r="B193" t="s" s="7">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="6">
+        <v>199</v>
+      </c>
+      <c r="B194" t="s" s="7">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="6">
+        <v>200</v>
+      </c>
+      <c r="B195" t="s" s="7">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="6">
+        <v>201</v>
+      </c>
+      <c r="B196" t="s" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="6">
+        <v>202</v>
+      </c>
+      <c r="B197" t="s" s="7">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="6">
+        <v>203</v>
+      </c>
+      <c r="B198" t="s" s="7">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="6">
+        <v>204</v>
+      </c>
+      <c r="B199" t="s" s="7">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="6">
+        <v>205</v>
+      </c>
+      <c r="B200" t="s" s="7">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="6">
+        <v>206</v>
+      </c>
+      <c r="B201" t="s" s="7">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="6">
+        <v>207</v>
+      </c>
+      <c r="B202" t="s" s="7">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="6">
+        <v>208</v>
+      </c>
+      <c r="B203" t="s" s="7">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="6">
+        <v>209</v>
+      </c>
+      <c r="B204" t="s" s="7">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="6">
+        <v>210</v>
+      </c>
+      <c r="B205" t="s" s="7">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="6">
+        <v>211</v>
+      </c>
+      <c r="B206" t="s" s="7">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="6">
+        <v>212</v>
+      </c>
+      <c r="B207" t="s" s="7">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="6">
+        <v>213</v>
+      </c>
+      <c r="B208" t="s" s="7">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="6">
+        <v>214</v>
+      </c>
+      <c r="B209" t="s" s="7">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="6">
+        <v>215</v>
+      </c>
+      <c r="B210" t="s" s="7">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="6">
+        <v>216</v>
+      </c>
+      <c r="B211" t="s" s="7">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="6">
+        <v>217</v>
+      </c>
+      <c r="B212" t="s" s="7">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="6">
+        <v>218</v>
+      </c>
+      <c r="B213" t="s" s="7">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="6">
+        <v>219</v>
+      </c>
+      <c r="B214" t="s" s="7">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="6">
+        <v>220</v>
+      </c>
+      <c r="B215" t="s" s="7">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="6">
+        <v>221</v>
+      </c>
+      <c r="B216" t="s" s="7">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="6">
+        <v>222</v>
+      </c>
+      <c r="B217" t="s" s="7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="6">
+        <v>223</v>
+      </c>
+      <c r="B218" t="s" s="7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="6">
+        <v>224</v>
+      </c>
+      <c r="B219" t="s" s="7">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="6">
+        <v>225</v>
+      </c>
+      <c r="B220" t="s" s="7">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="6">
+        <v>226</v>
+      </c>
+      <c r="B221" t="s" s="7">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="6">
+        <v>227</v>
+      </c>
+      <c r="B222" t="s" s="7">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="6">
+        <v>228</v>
+      </c>
+      <c r="B223" t="s" s="7">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="6">
+        <v>229</v>
+      </c>
+      <c r="B224" t="s" s="7">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="6">
+        <v>230</v>
+      </c>
+      <c r="B225" t="s" s="7">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="6">
+        <v>231</v>
+      </c>
+      <c r="B226" t="s" s="7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="6">
+        <v>232</v>
+      </c>
+      <c r="B227" t="s" s="7">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="6">
+        <v>233</v>
+      </c>
+      <c r="B228" t="s" s="7">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="6">
+        <v>234</v>
+      </c>
+      <c r="B229" t="s" s="7">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="6">
+        <v>235</v>
+      </c>
+      <c r="B230" t="s" s="7">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="6">
+        <v>236</v>
+      </c>
+      <c r="B231" t="s" s="7">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="6">
+        <v>237</v>
+      </c>
+      <c r="B232" t="s" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="6">
+        <v>238</v>
+      </c>
+      <c r="B233" t="s" s="7">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="6">
+        <v>239</v>
+      </c>
+      <c r="B234" t="s" s="7">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="6">
+        <v>240</v>
+      </c>
+      <c r="B235" t="s" s="7">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="6">
+        <v>241</v>
+      </c>
+      <c r="B236" t="s" s="7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="6">
+        <v>242</v>
+      </c>
+      <c r="B237" t="s" s="7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="6">
+        <v>243</v>
+      </c>
+      <c r="B238" t="s" s="7">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="6">
+        <v>244</v>
+      </c>
+      <c r="B239" t="s" s="7">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="6">
+        <v>245</v>
+      </c>
+      <c r="B240" t="s" s="7">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="6">
+        <v>246</v>
+      </c>
+      <c r="B241" t="s" s="7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="6">
+        <v>247</v>
+      </c>
+      <c r="B242" t="s" s="7">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="6">
+        <v>248</v>
+      </c>
+      <c r="B243" t="s" s="7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="6">
+        <v>249</v>
+      </c>
+      <c r="B244" t="s" s="7">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="6">
+        <v>250</v>
+      </c>
+      <c r="B245" t="s" s="7">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="6">
+        <v>251</v>
+      </c>
+      <c r="B246" t="s" s="7">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="6">
+        <v>252</v>
+      </c>
+      <c r="B247" t="s" s="7">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="6">
+        <v>253</v>
+      </c>
+      <c r="B248" t="s" s="7">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="6">
+        <v>254</v>
+      </c>
+      <c r="B249" t="s" s="7">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="6">
+        <v>255</v>
+      </c>
+      <c r="B250" t="s" s="7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="6">
+        <v>256</v>
+      </c>
+      <c r="B251" t="s" s="7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="6">
+        <v>257</v>
+      </c>
+      <c r="B252" t="s" s="7">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="6">
+        <v>258</v>
+      </c>
+      <c r="B253" t="s" s="7">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="6">
+        <v>259</v>
+      </c>
+      <c r="B254" t="s" s="7">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="6">
+        <v>260</v>
+      </c>
+      <c r="B255" t="s" s="7">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="6">
+        <v>261</v>
+      </c>
+      <c r="B256" t="s" s="7">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="6">
+        <v>262</v>
+      </c>
+      <c r="B257" t="s" s="7">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="6">
+        <v>263</v>
+      </c>
+      <c r="B258" t="s" s="7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="6">
+        <v>264</v>
+      </c>
+      <c r="B259" t="s" s="7">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="6">
+        <v>265</v>
+      </c>
+      <c r="B260" t="s" s="7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="6">
+        <v>266</v>
+      </c>
+      <c r="B261" t="s" s="7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="6">
+        <v>267</v>
+      </c>
+      <c r="B262" t="s" s="7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="6">
+        <v>268</v>
+      </c>
+      <c r="B263" t="s" s="7">
+        <v>267</v>
+      </c>
+      <c r="C263" t="s" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="6">
+        <v>269</v>
+      </c>
+      <c r="B264" t="s" s="7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="6">
+        <v>270</v>
+      </c>
+      <c r="B265" t="s" s="7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="6">
+        <v>271</v>
+      </c>
+      <c r="B266" t="s" s="7">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="6">
+        <v>272</v>
+      </c>
+      <c r="B267" t="s" s="7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="6">
+        <v>273</v>
+      </c>
+      <c r="B268" t="s" s="7">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="6">
+        <v>274</v>
+      </c>
+      <c r="B269" t="s" s="7">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="6">
+        <v>275</v>
+      </c>
+      <c r="B270" t="s" s="7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="6">
+        <v>276</v>
+      </c>
+      <c r="B271" t="s" s="7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="6">
+        <v>277</v>
+      </c>
+      <c r="B272" t="s" s="7">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="6">
+        <v>278</v>
+      </c>
+      <c r="B273" t="s" s="7">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="6">
+        <v>279</v>
+      </c>
+      <c r="B274" t="s" s="7">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="6">
+        <v>280</v>
+      </c>
+      <c r="B275" t="s" s="7">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="6">
+        <v>281</v>
+      </c>
+      <c r="B276" t="s" s="7">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="6">
+        <v>282</v>
+      </c>
+      <c r="B277" t="s" s="7">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="6">
+        <v>283</v>
+      </c>
+      <c r="B278" t="s" s="7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="6">
+        <v>284</v>
+      </c>
+      <c r="B279" t="s" s="7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="6">
+        <v>285</v>
+      </c>
+      <c r="B280" t="s" s="7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="6">
+        <v>286</v>
+      </c>
+      <c r="B281" t="s" s="7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="6">
+        <v>287</v>
+      </c>
+      <c r="B282" t="s" s="7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="6">
+        <v>288</v>
+      </c>
+      <c r="B283" t="s" s="7">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="6">
+        <v>289</v>
+      </c>
+      <c r="B284" t="s" s="7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="6">
+        <v>290</v>
+      </c>
+      <c r="B285" t="s" s="7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="6">
+        <v>291</v>
+      </c>
+      <c r="B286" t="s" s="7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="6">
+        <v>292</v>
+      </c>
+      <c r="B287" t="s" s="7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="6">
+        <v>293</v>
+      </c>
+      <c r="B288" t="s" s="7">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="6">
+        <v>294</v>
+      </c>
+      <c r="B289" t="s" s="7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="6">
+        <v>295</v>
+      </c>
+      <c r="B290" t="s" s="7">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="6">
+        <v>296</v>
+      </c>
+      <c r="B291" t="s" s="7">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="6">
+        <v>297</v>
+      </c>
+      <c r="B292" t="s" s="7">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="6">
+        <v>298</v>
+      </c>
+      <c r="B293" t="s" s="7">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="6">
+        <v>299</v>
+      </c>
+      <c r="B294" t="s" s="7">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="6">
+        <v>300</v>
+      </c>
+      <c r="B295" t="s" s="7">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="6">
+        <v>301</v>
+      </c>
+      <c r="B296" t="s" s="7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="6">
+        <v>302</v>
+      </c>
+      <c r="B297" t="s" s="7">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="6">
+        <v>303</v>
+      </c>
+      <c r="B298" t="s" s="7">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="6">
+        <v>304</v>
+      </c>
+      <c r="B299" t="s" s="7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="6">
+        <v>305</v>
+      </c>
+      <c r="B300" t="s" s="7">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="6">
+        <v>306</v>
+      </c>
+      <c r="B301" t="s" s="7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="6">
+        <v>307</v>
+      </c>
+      <c r="B302" t="s" s="7">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="6">
+        <v>308</v>
+      </c>
+      <c r="B303" t="s" s="7">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="6">
+        <v>309</v>
+      </c>
+      <c r="B304" t="s" s="7">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="6">
+        <v>310</v>
+      </c>
+      <c r="B305" t="s" s="7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="6">
+        <v>311</v>
+      </c>
+      <c r="B306" t="s" s="7">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="6">
+        <v>312</v>
+      </c>
+      <c r="B307" t="s" s="7">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="6">
+        <v>313</v>
+      </c>
+      <c r="B308" t="s" s="7">
+        <v>312</v>
+      </c>
+      <c r="C308" t="s" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="6">
+        <v>314</v>
+      </c>
+      <c r="B309" t="s" s="7">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="6">
+        <v>315</v>
+      </c>
+      <c r="B310" t="s" s="7">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="6">
+        <v>316</v>
+      </c>
+      <c r="B311" t="s" s="7">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="6">
+        <v>317</v>
+      </c>
+      <c r="B312" t="s" s="7">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="6">
+        <v>318</v>
+      </c>
+      <c r="B313" t="s" s="7">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="6">
+        <v>319</v>
+      </c>
+      <c r="B314" t="s" s="7">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="6">
+        <v>320</v>
+      </c>
+      <c r="B315" t="s" s="7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="6">
+        <v>321</v>
+      </c>
+      <c r="B316" t="s" s="7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="6">
+        <v>322</v>
+      </c>
+      <c r="B317" t="s" s="7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="6">
+        <v>323</v>
+      </c>
+      <c r="B318" t="s" s="7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="6">
+        <v>324</v>
+      </c>
+      <c r="B319" t="s" s="7">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="6">
+        <v>325</v>
+      </c>
+      <c r="B320" t="s" s="7">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="6">
+        <v>326</v>
+      </c>
+      <c r="B321" t="s" s="7">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="6">
+        <v>327</v>
+      </c>
+      <c r="B322" t="s" s="7">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="6">
+        <v>328</v>
+      </c>
+      <c r="B323" t="s" s="7">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="6">
+        <v>329</v>
+      </c>
+      <c r="B324" t="s" s="7">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="6">
+        <v>330</v>
+      </c>
+      <c r="B325" t="s" s="7">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="6">
+        <v>331</v>
+      </c>
+      <c r="B326" t="s" s="7">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="6">
+        <v>332</v>
+      </c>
+      <c r="B327" t="s" s="7">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="6">
+        <v>333</v>
+      </c>
+      <c r="B328" t="s" s="7">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="6">
+        <v>334</v>
+      </c>
+      <c r="B329" t="s" s="7">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="6">
+        <v>335</v>
+      </c>
+      <c r="B330" t="s" s="7">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="6">
+        <v>336</v>
+      </c>
+      <c r="B331" t="s" s="7">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="6">
+        <v>337</v>
+      </c>
+      <c r="B332" t="s" s="7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="6">
+        <v>338</v>
+      </c>
+      <c r="B333" t="s" s="7">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="6">
+        <v>339</v>
+      </c>
+      <c r="B334" t="s" s="7">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="6">
+        <v>340</v>
+      </c>
+      <c r="B335" t="s" s="7">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="6">
+        <v>341</v>
+      </c>
+      <c r="B336" t="s" s="7">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="6">
+        <v>342</v>
+      </c>
+      <c r="B337" t="s" s="7">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="6">
+        <v>343</v>
+      </c>
+      <c r="B338" t="s" s="7">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="6">
+        <v>344</v>
+      </c>
+      <c r="B339" t="s" s="7">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="6">
+        <v>345</v>
+      </c>
+      <c r="B340" t="s" s="7">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="6">
+        <v>346</v>
+      </c>
+      <c r="B341" t="s" s="7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="6">
+        <v>347</v>
+      </c>
+      <c r="B342" t="s" s="7">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="6">
+        <v>348</v>
+      </c>
+      <c r="B343" t="s" s="7">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="6">
+        <v>349</v>
+      </c>
+      <c r="B344" t="s" s="7">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="6">
+        <v>350</v>
+      </c>
+      <c r="B345" t="s" s="7">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="6">
+        <v>351</v>
+      </c>
+      <c r="B346" t="s" s="7">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="6">
+        <v>352</v>
+      </c>
+      <c r="B347" t="s" s="7">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="6">
+        <v>353</v>
+      </c>
+      <c r="B348" t="s" s="7">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="6">
+        <v>354</v>
+      </c>
+      <c r="B349" t="s" s="7">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="6">
+        <v>355</v>
+      </c>
+      <c r="B350" t="s" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="6">
+        <v>356</v>
+      </c>
+      <c r="B351" t="s" s="7">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="6">
+        <v>357</v>
+      </c>
+      <c r="B352" t="s" s="7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="6">
+        <v>358</v>
+      </c>
+      <c r="B353" t="s" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="6">
+        <v>359</v>
+      </c>
+      <c r="B354" t="s" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="6">
+        <v>360</v>
+      </c>
+      <c r="B355" t="s" s="7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="6">
+        <v>361</v>
+      </c>
+      <c r="B356" t="s" s="7">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="6">
+        <v>362</v>
+      </c>
+      <c r="B357" t="s" s="7">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="6">
+        <v>363</v>
+      </c>
+      <c r="B358" t="s" s="7">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="6">
+        <v>364</v>
+      </c>
+      <c r="B359" t="s" s="7">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="6">
+        <v>365</v>
+      </c>
+      <c r="B360" t="s" s="7">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="6">
+        <v>366</v>
+      </c>
+      <c r="B361" t="s" s="7">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="6">
+        <v>367</v>
+      </c>
+      <c r="B362" t="s" s="7">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="6">
+        <v>368</v>
+      </c>
+      <c r="B363" t="s" s="7">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="6">
+        <v>369</v>
+      </c>
+      <c r="B364" t="s" s="7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="6">
+        <v>370</v>
+      </c>
+      <c r="B365" t="s" s="7">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="6">
+        <v>371</v>
+      </c>
+      <c r="B366" t="s" s="7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="6">
+        <v>372</v>
+      </c>
+      <c r="B367" t="s" s="7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="6">
+        <v>373</v>
+      </c>
+      <c r="B368" t="s" s="7">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="6">
+        <v>374</v>
+      </c>
+      <c r="B369" t="s" s="7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="6">
+        <v>375</v>
+      </c>
+      <c r="B370" t="s" s="7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="6">
+        <v>376</v>
+      </c>
+      <c r="B371" t="s" s="7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="6">
+        <v>377</v>
+      </c>
+      <c r="B372" t="s" s="7">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="6">
+        <v>378</v>
+      </c>
+      <c r="B373" t="s" s="7">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/raw/Metafeatures.xlsx
+++ b/raw/Metafeatures.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="380">
   <si>
     <t>id</t>
   </si>
@@ -20,40 +20,40 @@
     <t>feature_area</t>
   </si>
   <si>
-    <t>independent personal pronouns make no clusivity distinction</t>
-  </si>
-  <si>
-    <t>complements may have a preposed complementizer</t>
-  </si>
-  <si>
-    <t>sex is a relevant property in the nomifier system</t>
-  </si>
-  <si>
-    <t>TAM marking in negated clauses identical to marking in affirmative clauses</t>
-  </si>
-  <si>
-    <t>no gender concord of an adnominal adjective with the noun</t>
-  </si>
-  <si>
-    <t>gender concord of few adnominal adjectives with the noun</t>
-  </si>
-  <si>
-    <t>gender concord of many adnominal adjectives with the noun</t>
-  </si>
-  <si>
-    <t>gender concord of all adnominal adjectives with the noun</t>
-  </si>
-  <si>
-    <t>predicative adjectives behave like verbs</t>
-  </si>
-  <si>
-    <t>predicative adjectives do not behave like verbs</t>
-  </si>
-  <si>
-    <t>predicative adjectives behave like verbs in some but not all respects</t>
-  </si>
-  <si>
-    <t>a clause with a predicative nominal has an invariant copula</t>
+    <t>z_independent personal pronouns make no clusivity distinction</t>
+  </si>
+  <si>
+    <t>z_complements may have a preposed complementizer</t>
+  </si>
+  <si>
+    <t>z_sex is a relevant property in the nomifier system</t>
+  </si>
+  <si>
+    <t>z_TAM marking in negated clauses identical to marking in affirmative clauses</t>
+  </si>
+  <si>
+    <t>z_no gender concord of an adnominal adjective with the noun</t>
+  </si>
+  <si>
+    <t>z_gender concord of few adnominal adjectives with the noun</t>
+  </si>
+  <si>
+    <t>z_gender concord of many adnominal adjectives with the noun</t>
+  </si>
+  <si>
+    <t>z_gender concord of all adnominal adjectives with the noun</t>
+  </si>
+  <si>
+    <t>z_predicative adjectives behave like verbs</t>
+  </si>
+  <si>
+    <t>z_predicative adjectives do not behave like verbs</t>
+  </si>
+  <si>
+    <t>z_predicative adjectives behave like verbs in some but not all respects</t>
+  </si>
+  <si>
+    <t>z_a clause with a predicative nominal has an invariant copula</t>
   </si>
   <si>
     <t>a clause with a predicative nominal has a variable copula</t>
@@ -1144,6 +1144,12 @@
   </si>
   <si>
     <t>there is no dominant order in intransitive clauses</t>
+  </si>
+  <si>
+    <t>gender distinction in independent personal pronouns</t>
+  </si>
+  <si>
+    <t>dual in independent personal pronouns</t>
   </si>
 </sst>
 </file>
@@ -4243,6 +4249,22 @@
         <v>377</v>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" s="6">
+        <v>379</v>
+      </c>
+      <c r="B374" t="s" s="7">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="6">
+        <v>380</v>
+      </c>
+      <c r="B375" t="s" s="7">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>